--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\robo\RoboticEnterpriseFramework_DeepDive\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F51C80C-D67B-46ED-AEBB-2D8F7FD6EA5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EF87C3-FAC8-44D3-A8E1-70B87C75C839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
@@ -119,10 +115,16 @@
     <t>Dispatcher_DeepDive</t>
   </si>
   <si>
-    <t>Fila Com Itens a serem processados do exercicio Reframework</t>
+    <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
+    <t>Framework_DeepDive_Login</t>
+  </si>
+  <si>
+    <t>Login UIDemo</t>
+  </si>
+  <si>
+    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
   </si>
 </sst>
 </file>
@@ -168,12 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,14 +495,14 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="3" max="3" width="106.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -538,29 +542,58 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1564,9 +1597,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1611,84 +1646,84 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2664,8 +2699,6 @@
     <row r="983" ht="14.25" customHeight="1"/>
     <row r="984" ht="14.25" customHeight="1"/>
     <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2677,7 +2710,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2696,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
